--- a/mf-intelligence/data/processed/quant/quant_PSU_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_PSU_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INE115A01026</t>
+          <t>INE522F01014</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LIC Housing Finance Ltd</t>
+          <t>Coal India Ltd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,30 +492,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.588673</v>
+        <v>10.101646</v>
       </c>
       <c r="E2" t="n">
-        <v>9.196228</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.091604999999999</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3924450000000004</v>
+        <v>10.101646</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4970680000000005</v>
+        <v>10.101646</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INE062A01020</t>
+          <t>INE115A01026</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>State Bank of India</t>
+          <t>LIC Housing Finance Ltd</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,19 +524,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.260284</v>
+        <v>9.69026</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>9.588673</v>
       </c>
       <c r="F3" t="n">
-        <v>8.642809</v>
+        <v>9.196228</v>
       </c>
       <c r="G3" t="n">
-        <v>9.260284</v>
+        <v>0.1015870000000003</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6174750000000007</v>
+        <v>0.4940320000000007</v>
       </c>
     </row>
     <row r="4">
@@ -556,19 +556,19 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>9.38495</v>
+      </c>
+      <c r="E4" t="n">
         <v>8.925459</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>8.800407999999999</v>
       </c>
-      <c r="F4" t="n">
-        <v>8.369671</v>
-      </c>
       <c r="G4" t="n">
-        <v>0.1250510000000009</v>
+        <v>0.4594909999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5557879999999997</v>
+        <v>0.5845420000000008</v>
       </c>
     </row>
     <row r="5">
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>8.559979999999999</v>
+      </c>
+      <c r="E5" t="n">
         <v>8.703604</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>6.043951</v>
       </c>
-      <c r="F5" t="n">
-        <v>6.252576</v>
-      </c>
       <c r="G5" t="n">
-        <v>2.659653</v>
+        <v>-0.1436240000000009</v>
       </c>
       <c r="H5" t="n">
-        <v>2.451028</v>
+        <v>2.516029</v>
       </c>
     </row>
     <row r="6">
@@ -620,30 +620,30 @@
         </is>
       </c>
       <c r="D6" t="n">
+        <v>7.921467</v>
+      </c>
+      <c r="E6" t="n">
         <v>8.653581000000001</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>3.631247</v>
       </c>
-      <c r="F6" t="n">
-        <v>3.75492</v>
-      </c>
       <c r="G6" t="n">
-        <v>5.022334000000001</v>
+        <v>-0.732114000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>4.898661000000001</v>
+        <v>4.29022</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE257A01026</t>
+          <t>INE131A01031</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Ltd</t>
+          <t>Gujarat Mineral Development Corp Ltd</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,30 +652,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8.221399999999999</v>
+        <v>7.343367</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6.98031</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>5.925037</v>
       </c>
       <c r="G7" t="n">
-        <v>8.221399999999999</v>
+        <v>0.3630569999999995</v>
       </c>
       <c r="H7" t="n">
-        <v>8.221399999999999</v>
+        <v>1.41833</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INE131A01031</t>
+          <t>INE584A01023</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gujarat Mineral Development Corp Ltd</t>
+          <t>NMDC Ltd</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,30 +684,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6.98031</v>
+        <v>7.217659</v>
       </c>
       <c r="E8" t="n">
-        <v>5.925037</v>
+        <v>6.779965</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.87107</v>
       </c>
       <c r="G8" t="n">
-        <v>1.055273000000001</v>
+        <v>0.4376940000000005</v>
       </c>
       <c r="H8" t="n">
-        <v>6.98031</v>
+        <v>4.346589</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INE584A01023</t>
+          <t>INE213A01029</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NMDC Ltd</t>
+          <t>Oil and Natural Gas Corporation Ltd.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,30 +716,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6.779965</v>
+        <v>6.520862</v>
       </c>
       <c r="E9" t="n">
-        <v>2.87107</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.908895</v>
+        <v>6.520862</v>
       </c>
       <c r="H9" t="n">
-        <v>6.779965</v>
+        <v>6.520862</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE031A01017</t>
+          <t>INE018E01016</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Housing &amp; Urban Devlopment Company Ltd</t>
+          <t>SBI Cards &amp; Payment Services Ltd</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,30 +748,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6.050591</v>
+        <v>2.931496</v>
       </c>
       <c r="E10" t="n">
-        <v>5.980718</v>
+        <v>3.074732</v>
       </c>
       <c r="F10" t="n">
-        <v>2.920438</v>
+        <v>1.517926</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06987299999999941</v>
+        <v>-0.1432359999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>3.130153</v>
+        <v>1.41357</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE171Z01026</t>
+          <t>INE589A01014</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bharat Dynamics Limited</t>
+          <t>NLC India Limited</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,30 +780,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.631098</v>
+        <v>0.603333</v>
       </c>
       <c r="E11" t="n">
-        <v>1.952966</v>
+        <v>0.534424</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.489507</v>
       </c>
       <c r="G11" t="n">
-        <v>1.678132</v>
+        <v>0.068909</v>
       </c>
       <c r="H11" t="n">
-        <v>3.631098</v>
+        <v>0.113826</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE018E01016</t>
+          <t>INE752E01010</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SBI Cards &amp; Payment Services Ltd</t>
+          <t>Power Grid Corporation of India Limited</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,19 +812,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.074732</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1.517926</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.711656</v>
       </c>
       <c r="G12" t="n">
-        <v>1.556806</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>3.074732</v>
+        <v>-2.711656</v>
       </c>
     </row>
     <row r="13">
@@ -844,30 +844,30 @@
         </is>
       </c>
       <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
         <v>1.011007</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>3.066512</v>
       </c>
-      <c r="F13" t="n">
-        <v>2.994703</v>
-      </c>
       <c r="G13" t="n">
-        <v>-2.055505</v>
+        <v>-1.011007</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.983696</v>
+        <v>-3.066512</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE589A01014</t>
+          <t>INE423A20016</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NLC India Limited</t>
+          <t>Adani Enterprises Limited Rights</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -876,30 +876,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.534424</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.489507</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.50197</v>
+        <v>0.14071</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04491699999999998</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03245399999999998</v>
+        <v>-0.14071</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE134E01011</t>
+          <t>INE257A01026</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Power Finance Corporation Ltd.</t>
+          <t>Bharat Heavy Electricals Ltd</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -911,13 +911,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>2.951911</v>
+        <v>8.221399999999999</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.951911</v>
+        <v>-8.221399999999999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,12 +926,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE020B01018</t>
+          <t>INE263A01024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rural Electrification Corporation Ltd</t>
+          <t>Bharat Electronics Ltd</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -943,27 +943,27 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.75745</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>9.592911000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.75745</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-9.592911000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE242A01010</t>
+          <t>INE020B01018</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Indian Oil Corp Ltd</t>
+          <t>Rural Electrification Corporation Ltd</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -978,24 +978,24 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>8.030499000000001</v>
+        <v>0.75745</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-8.030499000000001</v>
+        <v>-0.75745</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE129A01019</t>
+          <t>INE171Z01026</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GAIL (India) Limited</t>
+          <t>Bharat Dynamics Limited</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1007,27 +1007,27 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>3.631098</v>
       </c>
       <c r="F18" t="n">
-        <v>1.61757</v>
+        <v>1.952966</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-3.631098</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.61757</v>
+        <v>-1.952966</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE263A01024</t>
+          <t>INE134E01011</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bharat Electronics Ltd</t>
+          <t>Power Finance Corporation Ltd.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1039,16 +1039,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>9.592911000000001</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>8.270709</v>
+        <v>2.951911</v>
       </c>
       <c r="G19" t="n">
-        <v>-9.592911000000001</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-8.270709</v>
+        <v>-2.951911</v>
       </c>
     </row>
     <row r="20">
@@ -1071,27 +1071,27 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>1.515132</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>-1.515132</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE094A01015</t>
+          <t>INE062A01020</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Hindustan Petroleum Corporation Ltd</t>
+          <t>State Bank of India</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1103,27 +1103,27 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>9.260284</v>
       </c>
       <c r="F21" t="n">
-        <v>4.348009</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>-9.260284</v>
       </c>
       <c r="H21" t="n">
-        <v>-4.348009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE031A01017</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>Housing &amp; Urban Devlopment Company Ltd</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1135,27 +1135,27 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.14071</v>
+        <v>6.050591</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>5.980718</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.14071</v>
+        <v>-6.050591</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-5.980718</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE029A01011</t>
+          <t>INE931S01010</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bharat Petroleum Corp Ltd</t>
+          <t>Adani Energy Solutions Limited</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1170,77 +1170,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>6.265599</v>
+        <v>1.826353</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-6.265599</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>INE752E01010</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Power Grid Corporation of India Limited</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>quant PSU Fund</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2.711656</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2.752036</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-2.711656</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-2.752036</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>INE931S01010</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Adani Energy Solutions Limited</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>quant PSU Fund</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1.826353</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2.477313</v>
-      </c>
-      <c r="G25" t="n">
         <v>-1.826353</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-2.477313</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_PSU_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_PSU_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,21 +496,26 @@
           <t>quant PSU Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>10.101646</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>10.101646</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>10.101646</v>
       </c>
+      <c r="I2" t="n">
+        <v>10.101646</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -523,20 +533,25 @@
           <t>quant PSU Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>9.69026</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>9.588673</v>
       </c>
-      <c r="F3" t="n">
-        <v>9.196228</v>
-      </c>
       <c r="G3" t="n">
+        <v>9.091604999999999</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.1015870000000003</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.4940320000000007</v>
+      <c r="I3" t="n">
+        <v>0.5986550000000008</v>
       </c>
     </row>
     <row r="4">
@@ -555,20 +570,25 @@
           <t>quant PSU Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>9.38495</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>8.925459</v>
       </c>
-      <c r="F4" t="n">
-        <v>8.800407999999999</v>
-      </c>
       <c r="G4" t="n">
+        <v>8.369671</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.4594909999999999</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.5845420000000008</v>
+      <c r="I4" t="n">
+        <v>1.015279</v>
       </c>
     </row>
     <row r="5">
@@ -587,20 +607,25 @@
           <t>quant PSU Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>8.559979999999999</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>8.703604</v>
       </c>
-      <c r="F5" t="n">
-        <v>6.043951</v>
-      </c>
       <c r="G5" t="n">
+        <v>6.252576</v>
+      </c>
+      <c r="H5" t="n">
         <v>-0.1436240000000009</v>
       </c>
-      <c r="H5" t="n">
-        <v>2.516029</v>
+      <c r="I5" t="n">
+        <v>2.307403999999999</v>
       </c>
     </row>
     <row r="6">
@@ -619,20 +644,25 @@
           <t>quant PSU Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>7.921467</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>8.653581000000001</v>
       </c>
-      <c r="F6" t="n">
-        <v>3.631247</v>
-      </c>
       <c r="G6" t="n">
+        <v>3.75492</v>
+      </c>
+      <c r="H6" t="n">
         <v>-0.732114000000001</v>
       </c>
-      <c r="H6" t="n">
-        <v>4.29022</v>
+      <c r="I6" t="n">
+        <v>4.166547</v>
       </c>
     </row>
     <row r="7">
@@ -651,20 +681,25 @@
           <t>quant PSU Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>7.343367</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>6.98031</v>
       </c>
-      <c r="F7" t="n">
-        <v>5.925037</v>
-      </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.3630569999999995</v>
       </c>
-      <c r="H7" t="n">
-        <v>1.41833</v>
+      <c r="I7" t="n">
+        <v>7.343367</v>
       </c>
     </row>
     <row r="8">
@@ -683,20 +718,25 @@
           <t>quant PSU Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>7.217659</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>6.779965</v>
       </c>
-      <c r="F8" t="n">
-        <v>2.87107</v>
-      </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.4376940000000005</v>
       </c>
-      <c r="H8" t="n">
-        <v>4.346589</v>
+      <c r="I8" t="n">
+        <v>7.217659</v>
       </c>
     </row>
     <row r="9">
@@ -715,21 +755,26 @@
           <t>quant PSU Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>6.520862</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>6.520862</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>6.520862</v>
       </c>
+      <c r="I9" t="n">
+        <v>6.520862</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -747,20 +792,25 @@
           <t>quant PSU Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>2.931496</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3.074732</v>
       </c>
-      <c r="F10" t="n">
-        <v>1.517926</v>
-      </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>-0.1432359999999999</v>
       </c>
-      <c r="H10" t="n">
-        <v>1.41357</v>
+      <c r="I10" t="n">
+        <v>2.931496</v>
       </c>
     </row>
     <row r="11">
@@ -779,31 +829,36 @@
           <t>quant PSU Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>0.603333</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.534424</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.489507</v>
-      </c>
       <c r="G11" t="n">
+        <v>0.50197</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.068909</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.113826</v>
+      <c r="I11" t="n">
+        <v>0.101363</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE752E01010</t>
+          <t>INE263A01024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Power Grid Corporation of India Limited</t>
+          <t>Bharat Electronics Ltd</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -811,31 +866,36 @@
           <t>quant PSU Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2.711656</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>8.270709</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.711656</v>
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-8.270709</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE510A01028</t>
+          <t>INE752E01010</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Engineers India Limited</t>
+          <t>Power Grid Corporation of India Limited</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -843,31 +903,36 @@
           <t>quant PSU Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>1.011007</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3.066512</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.011007</v>
+        <v>2.752036</v>
       </c>
       <c r="H13" t="n">
-        <v>-3.066512</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-2.752036</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE510A01028</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>Engineers India Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -875,31 +940,36 @@
           <t>quant PSU Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.14071</v>
+        <v>1.011007</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.994703</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.14071</v>
+        <v>-1.011007</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-2.994703</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE257A01026</t>
+          <t>INE242A01010</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Ltd</t>
+          <t>Indian Oil Corp Ltd</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -907,31 +977,36 @@
           <t>quant PSU Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E15" t="n">
-        <v>8.221399999999999</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-8.221399999999999</v>
+        <v>8.030499000000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-8.030499000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE263A01024</t>
+          <t>INE257A01026</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bharat Electronics Ltd</t>
+          <t>Bharat Heavy Electricals Ltd</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -939,31 +1014,36 @@
           <t>quant PSU Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>9.592911000000001</v>
+        <v>8.221399999999999</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-9.592911000000001</v>
+        <v>-8.221399999999999</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE020B01018</t>
+          <t>INE029A01011</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Rural Electrification Corporation Ltd</t>
+          <t>Bharat Petroleum Corp Ltd</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -971,20 +1051,25 @@
           <t>quant PSU Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.75745</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.265599</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.75745</v>
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-6.265599</v>
       </c>
     </row>
     <row r="18">
@@ -1003,31 +1088,36 @@
           <t>quant PSU Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>3.631098</v>
       </c>
-      <c r="F18" t="n">
-        <v>1.952966</v>
-      </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>-3.631098</v>
       </c>
-      <c r="H18" t="n">
-        <v>-1.952966</v>
+      <c r="I18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE134E01011</t>
+          <t>INE129A01019</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Power Finance Corporation Ltd.</t>
+          <t>GAIL (India) Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1035,31 +1125,36 @@
           <t>quant PSU Fund</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2.951911</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.61757</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.951911</v>
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-1.61757</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE095N01031</t>
+          <t>INE094A01015</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>National Building Construction Corp</t>
+          <t>Hindustan Petroleum Corporation Ltd</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1067,20 +1162,25 @@
           <t>quant PSU Fund</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.515132</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>4.348009</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.515132</v>
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-4.348009</v>
       </c>
     </row>
     <row r="21">
@@ -1099,20 +1199,25 @@
           <t>quant PSU Fund</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>9.260284</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
       <c r="G21" t="n">
+        <v>8.642809</v>
+      </c>
+      <c r="H21" t="n">
         <v>-9.260284</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
+      <c r="I21" t="n">
+        <v>-8.642809</v>
       </c>
     </row>
     <row r="22">
@@ -1131,20 +1236,25 @@
           <t>quant PSU Fund</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>6.050591</v>
       </c>
-      <c r="F22" t="n">
-        <v>5.980718</v>
-      </c>
       <c r="G22" t="n">
+        <v>2.920438</v>
+      </c>
+      <c r="H22" t="n">
         <v>-6.050591</v>
       </c>
-      <c r="H22" t="n">
-        <v>-5.980718</v>
+      <c r="I22" t="n">
+        <v>-2.920438</v>
       </c>
     </row>
     <row r="23">
@@ -1163,20 +1273,25 @@
           <t>quant PSU Fund</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.826353</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.477313</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.826353</v>
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-2.477313</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_PSU_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_PSU_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,29 +498,34 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant PSU Fund</t>
+          <t>Consumable Fuels</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant PSU Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>10.101646</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>10.101646</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>10.101646</v>
       </c>
+      <c r="J2" t="n">
+        <v>10.101646</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant PSU Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant PSU Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>9.69026</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>9.588673</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>9.091604999999999</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.1015870000000003</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.5986550000000008</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant PSU Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant PSU Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>9.38495</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>8.925459</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>8.369671</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.4594909999999999</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>1.015279</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant PSU Fund</t>
+          <t>Metals &amp; Minerals Trading</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant PSU Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>8.559979999999999</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>8.703604</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>6.252576</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>-0.1436240000000009</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>2.307403999999999</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant PSU Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant PSU Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>7.921467</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>8.653581000000001</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>3.75492</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>-0.732114000000001</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>4.166547</v>
       </c>
     </row>
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant PSU Fund</t>
+          <t>Minerals &amp; Mining</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant PSU Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>7.343367</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>6.98031</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.3630569999999995</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>7.343367</v>
       </c>
     </row>
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant PSU Fund</t>
+          <t>Minerals &amp; Mining</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant PSU Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>7.217659</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>6.779965</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.4376940000000005</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>7.217659</v>
       </c>
     </row>
@@ -752,29 +792,34 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant PSU Fund</t>
+          <t>Oil</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant PSU Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>6.520862</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>6.520862</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>6.520862</v>
       </c>
+      <c r="J9" t="n">
+        <v>6.520862</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -789,27 +834,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant PSU Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant PSU Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>2.931496</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>3.074732</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>-0.1432359999999999</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>2.931496</v>
       </c>
     </row>
@@ -826,27 +876,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant PSU Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant PSU Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.603333</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.534424</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>0.50197</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.068909</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.101363</v>
       </c>
     </row>
@@ -863,27 +918,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant PSU Fund</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant PSU Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>8.270709</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>-8.270709</v>
       </c>
     </row>
@@ -900,27 +960,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant PSU Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant PSU Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>2.752036</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>-2.752036</v>
       </c>
     </row>
@@ -937,27 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant PSU Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant PSU Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.011007</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>2.994703</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>-1.011007</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>-2.994703</v>
       </c>
     </row>
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant PSU Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant PSU Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>8.030499000000001</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>-8.030499000000001</v>
       </c>
     </row>
@@ -1011,27 +1086,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant PSU Fund</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant PSU Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>8.221399999999999</v>
       </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>-8.221399999999999</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant PSU Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant PSU Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>6.265599</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>-6.265599</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant PSU Fund</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant PSU Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>3.631098</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>-3.631098</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant PSU Fund</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant PSU Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.61757</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>-1.61757</v>
       </c>
     </row>
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>quant PSU Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>quant PSU Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>4.348009</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>-4.348009</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>quant PSU Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>quant PSU Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>9.260284</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>8.642809</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>-9.260284</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>-8.642809</v>
       </c>
     </row>
@@ -1233,27 +1338,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>quant PSU Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>quant PSU Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>6.050591</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>2.920438</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>-6.050591</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>-2.920438</v>
       </c>
     </row>
@@ -1270,27 +1380,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>quant PSU Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>quant PSU Fund</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>2.477313</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>-2.477313</v>
       </c>
     </row>
